--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trome\Documents\GitHub\sentence-completion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{724ACA12-73DC-4B3F-827B-62CB8B676E6D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC9DD5A1-8966-48EC-8B32-773D015809C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6893" xr2:uid="{987C0C64-AF3E-402A-AC5A-60268740FCD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DPPMI + SH + SW</t>
   </si>
   <si>
-    <t>Woods - DPPMI (2016)</t>
-  </si>
-  <si>
     <t>DPPMI</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
   </si>
   <si>
     <t>not specified</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Busch et. al. (2012) - PPMI</t>
+  </si>
+  <si>
+    <t>Woods(2016) - DPPMI</t>
+  </si>
+  <si>
+    <t>Woods (2016) - DPPMI</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -115,23 +124,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -142,6 +365,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07336961-CEA6-4E09-960F-9060E60DBB5E}" name="Table2" displayName="Table2" ref="F7:J21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+  <autoFilter ref="F7:J21" xr:uid="{EFDDE784-F248-4F44-8DE4-E0A4D217FB37}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A689A799-ABF7-43AF-86D0-4DDC1FE5D528}" name="Dataset" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{60EEB3BC-7E27-48F4-A5B4-470C77912BD9}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{D0803C4F-A87E-4E61-BB3E-2664E02B6131}" name="Window Size" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2C1B79E-A73A-4CB8-A8EB-C1033CF541CE}" name="Vocab Size" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A06EFBDD-9019-4A72-9371-6C16B351828C}" name="Dev Accuracy" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,212 +684,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E774FE-00BA-4815-A8CF-047059B5D02D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="F1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="6" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="J7" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.50320512820512797</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.52403846153846101</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.51602564102564097</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.51762820512820495</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.50961538461538403</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.50961538461538403</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10">
+        <v>5</v>
+      </c>
+      <c r="I14" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.51762820512820495</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5</v>
+      </c>
+      <c r="I16" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.53525641025641002</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="I17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.61439999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.50320512820512797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="H18" s="9">
+        <v>5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>15000</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.18041237113402001</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.52403846153846101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.51602564102564097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.51762820512820495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.50961538461538403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.50961538461538403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.51762820512820495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.53846153846153799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
+      <c r="H19" s="10">
+        <v>5</v>
+      </c>
+      <c r="I19" s="10">
         <v>15000</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.53525641025641002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="J19" s="16">
+        <v>0.25257731958762802</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0.61439999999999995</v>
+      <c r="G21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.58950000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trome\Documents\GitHub\sentence-completion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC9DD5A1-8966-48EC-8B32-773D015809C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2A0A5241-5035-4964-A08E-C1A799628375}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6893" xr2:uid="{987C0C64-AF3E-402A-AC5A-60268740FCD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -36,15 +36,6 @@
     <t>MSR</t>
   </si>
   <si>
-    <t>PPMI + SH</t>
-  </si>
-  <si>
-    <t>PPMI + SH + SW</t>
-  </si>
-  <si>
-    <t>PPMI + SH + SW + DP</t>
-  </si>
-  <si>
     <t>Vocab Size</t>
   </si>
   <si>
@@ -54,12 +45,6 @@
     <t>PPMI</t>
   </si>
   <si>
-    <t>PPMI + SH + DP</t>
-  </si>
-  <si>
-    <t>DPPMI + SH + SW</t>
-  </si>
-  <si>
     <t>DPPMI</t>
   </si>
   <si>
@@ -82,6 +67,48 @@
   </si>
   <si>
     <t>Woods (2016) - DPPMI</t>
+  </si>
+  <si>
+    <t>Design Matrix</t>
+  </si>
+  <si>
+    <t>Word-Word</t>
+  </si>
+  <si>
+    <t>Word-Sentence</t>
+  </si>
+  <si>
+    <t>20 w/ decay</t>
+  </si>
+  <si>
+    <t>PPMI + FSH</t>
+  </si>
+  <si>
+    <t>PPMI + FSH + SW</t>
+  </si>
+  <si>
+    <t>PPMI + FSH + DP</t>
+  </si>
+  <si>
+    <t>PPMI + FSH + SW + DP</t>
+  </si>
+  <si>
+    <t>DPPMI + FSH + SW</t>
+  </si>
+  <si>
+    <t>PPMI + ISH</t>
+  </si>
+  <si>
+    <t>PPMI + ISH + SW</t>
+  </si>
+  <si>
+    <t>DPPMI + ISH + SW</t>
+  </si>
+  <si>
+    <t>PPMI + ISH + SW + DP</t>
+  </si>
+  <si>
+    <t>PPMI + ISH + DP</t>
   </si>
 </sst>
 </file>
@@ -89,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,22 +302,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +327,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -307,6 +337,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -334,26 +384,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -368,20 +398,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07336961-CEA6-4E09-960F-9060E60DBB5E}" name="Table2" displayName="Table2" ref="F7:J21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
-  <autoFilter ref="F7:J21" xr:uid="{EFDDE784-F248-4F44-8DE4-E0A4D217FB37}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07336961-CEA6-4E09-960F-9060E60DBB5E}" name="Table2" displayName="Table2" ref="F7:K36" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+  <autoFilter ref="F7:K36" xr:uid="{EFDDE784-F248-4F44-8DE4-E0A4D217FB37}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A689A799-ABF7-43AF-86D0-4DDC1FE5D528}" name="Dataset" dataDxfId="5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A689A799-ABF7-43AF-86D0-4DDC1FE5D528}" name="Dataset" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{60EEB3BC-7E27-48F4-A5B4-470C77912BD9}" name="Model"/>
-    <tableColumn id="3" xr3:uid="{D0803C4F-A87E-4E61-BB3E-2664E02B6131}" name="Window Size" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2C1B79E-A73A-4CB8-A8EB-C1033CF541CE}" name="Vocab Size" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A06EFBDD-9019-4A72-9371-6C16B351828C}" name="Dev Accuracy" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{28F71A7B-9222-46A2-995A-81024B25C7A2}" name="Design Matrix"/>
+    <tableColumn id="3" xr3:uid="{D0803C4F-A87E-4E61-BB3E-2664E02B6131}" name="Window Size" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A2C1B79E-A73A-4CB8-A8EB-C1033CF541CE}" name="Vocab Size" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A06EFBDD-9019-4A72-9371-6C16B351828C}" name="Dev Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -684,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E774FE-00BA-4815-A8CF-047059B5D02D}">
-  <dimension ref="F1:J21"/>
+  <dimension ref="F1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -699,16 +730,17 @@
     <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
     <col min="7" max="7" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F1" s="1"/>
     </row>
-    <row r="6" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F7" s="19" t="s">
         <v>1</v>
       </c>
@@ -716,250 +748,591 @@
         <v>0</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="20" t="s">
+    </row>
+    <row r="8" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.50320512820512797</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.52403846153846101</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.53525641025641002</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5</v>
+      </c>
+      <c r="J11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.51602564102564097</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.53365384615384603</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="10">
+        <v>5</v>
+      </c>
+      <c r="J13" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.51762820512820495</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="10">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.51923076923076905</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.50961538461538403</v>
+      </c>
+    </row>
+    <row r="16" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11">
+        <v>5</v>
+      </c>
+      <c r="J16" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.51602564102564097</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.50961538461538403</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5</v>
+      </c>
+      <c r="J18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.51762820512820495</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.54166666666666596</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10">
+        <v>10</v>
+      </c>
+      <c r="J20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="10">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.54166666666666596</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5</v>
+      </c>
+      <c r="J22" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.53525641025641002</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="10">
+        <v>5</v>
+      </c>
+      <c r="J23" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.55288461538461497</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="J24" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0.51602564102564097</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.51121794871794801</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.52403846153846101</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0.51442307692307598</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0.51762820512820495</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="22">
+        <v>0.53044871794871795</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="17">
+        <v>0.61439999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9">
+        <v>5</v>
+      </c>
+      <c r="J33" s="9">
+        <v>15000</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0.18041237113402001</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="10">
+        <v>5</v>
+      </c>
+      <c r="J34" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0.25257731958762802</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.45">
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.50320512820512797</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.52403846153846101</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0.51602564102564097</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="J36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.51762820512820495</v>
-      </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11">
-        <v>5</v>
-      </c>
-      <c r="I12" s="11">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0.50961538461538403</v>
-      </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0.50961538461538403</v>
-      </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.51762820512820495</v>
-      </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="10">
-        <v>10</v>
-      </c>
-      <c r="I15" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0.53846153846153799</v>
-      </c>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5</v>
-      </c>
-      <c r="I16" s="10">
-        <v>15000</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0.53525641025641002</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0.61439999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="9">
-        <v>5</v>
-      </c>
-      <c r="I18" s="9">
-        <v>15000</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0.18041237113402001</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="10">
-        <v>5</v>
-      </c>
-      <c r="I19" s="10">
-        <v>15000</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0.25257731958762802</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="K36" s="17">
         <v>0.58950000000000002</v>
       </c>
     </row>

--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trome\Documents\GitHub\sentence-completion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bonnienortz/Documents/CS224U NLU/sentence-completion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C90F78D9-15E5-4B5A-AA46-B516081054AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{419033AC-B353-834E-84EA-ED6041C5EF55}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6893" xr2:uid="{987C0C64-AF3E-402A-AC5A-60268740FCD2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12380" windowHeight="14960" xr2:uid="{987C0C64-AF3E-402A-AC5A-60268740FCD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -106,6 +106,102 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + SW</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + SW + Children</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + SW + Ancestors</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + SW + DP</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + Children</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + Ancestors</t>
+  </si>
+  <si>
+    <t>PPMI-12 + FSH + DP</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + SW</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + SW + Children</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + SW + Ancestors</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + SW + DP</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + Children</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + Ancestors</t>
+  </si>
+  <si>
+    <t>PPMI-12 + ISH + DP</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + SW</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + SW + Children</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + SW + Ancestors</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + SW + DP</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + Children</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + Ancestors</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + FSH + DP</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + SW</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + SW + Children</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + SW + Ancestors</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + SW + DP</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + Children</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + Ancestors</t>
+  </si>
+  <si>
+    <t>DPPMI-12 + ISH + DP</t>
   </si>
 </sst>
 </file>
@@ -242,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07336961-CEA6-4E09-960F-9060E60DBB5E}" name="Table2" displayName="Table2" ref="F7:L26" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="F7:L26" xr:uid="{F3BA544C-B92B-487B-B346-14904427EEC1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07336961-CEA6-4E09-960F-9060E60DBB5E}" name="Table2" displayName="Table2" ref="F7:L58" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="F7:L58" xr:uid="{F3BA544C-B92B-487B-B346-14904427EEC1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -562,32 +658,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E774FE-00BA-4815-A8CF-047059B5D02D}">
-  <dimension ref="F1:L26"/>
+  <dimension ref="F1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="101" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>1</v>
       </c>
@@ -610,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
@@ -633,7 +729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F9" s="8" t="s">
         <v>2</v>
       </c>
@@ -656,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
@@ -679,7 +775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F11" s="8" t="s">
         <v>2</v>
       </c>
@@ -702,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F12" s="8" t="s">
         <v>2</v>
       </c>
@@ -725,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F13" s="8" t="s">
         <v>2</v>
       </c>
@@ -748,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F14" s="8" t="s">
         <v>2</v>
       </c>
@@ -771,7 +867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F15" s="8" t="s">
         <v>2</v>
       </c>
@@ -794,7 +890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
@@ -817,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F17" s="8" t="s">
         <v>2</v>
       </c>
@@ -840,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F18" s="8" t="s">
         <v>2</v>
       </c>
@@ -863,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F19" s="8" t="s">
         <v>2</v>
       </c>
@@ -886,7 +982,7 @@
         <v>0.51923076923076905</v>
       </c>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F20" s="8" t="s">
         <v>2</v>
       </c>
@@ -909,7 +1005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F21" s="8" t="s">
         <v>2</v>
       </c>
@@ -932,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F22" s="8" t="s">
         <v>2</v>
       </c>
@@ -955,7 +1051,7 @@
         <v>0.61439999999999995</v>
       </c>
     </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
@@ -976,7 +1072,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F24" s="8" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1093,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1114,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1038,6 +1134,678 @@
       <c r="L26" s="9">
         <v>0.58950000000000002</v>
       </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.26288659793814401</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.25773195876288602</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.28350515463917503</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.28350515463917503</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.30412371134020599</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.298969072164948</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="4">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.26288659793814401</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.25773195876288602</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.28350515463917503</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.28350515463917503</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.30412371134020599</v>
+      </c>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.298969072164948</v>
+      </c>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.27319587628865899</v>
+      </c>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="4">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.29381443298969001</v>
+      </c>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4">
+        <v>5</v>
+      </c>
+      <c r="J45" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.29381443298969001</v>
+      </c>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.30927835051546299</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4">
+        <v>5</v>
+      </c>
+      <c r="J47" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="4">
+        <v>5</v>
+      </c>
+      <c r="J48" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.28865979381443202</v>
+      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+      <c r="J49" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.28865979381443202</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="4">
+        <v>5</v>
+      </c>
+      <c r="J50" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.30927835051546299</v>
+      </c>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="4">
+        <v>5</v>
+      </c>
+      <c r="J51" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.27319587628865899</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="4">
+        <v>5</v>
+      </c>
+      <c r="J52" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.29381443298969001</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="4">
+        <v>5</v>
+      </c>
+      <c r="J53" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0.29381443298969001</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5</v>
+      </c>
+      <c r="J54" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.30927835051546299</v>
+      </c>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="4">
+        <v>5</v>
+      </c>
+      <c r="J55" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="4">
+        <v>5</v>
+      </c>
+      <c r="J56" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0.28865979381443202</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="4">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0.28865979381443202</v>
+      </c>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="4">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.30927835051546299</v>
+      </c>
+      <c r="L58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
